--- a/Estimation_NC/media/Estimation_List.xlsx
+++ b/Estimation_NC/media/Estimation_List.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,8 +386,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CR1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -405,45 +407,27 @@
       <c r="E2" t="n">
         <v>16.03</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>This is demo</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.86</v>
+        <v>14.57</v>
       </c>
       <c r="E3" t="n">
-        <v>2.93</v>
+        <v>16.03</v>
       </c>
       <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="E4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Estimation_NC/media/Estimation_List.xlsx
+++ b/Estimation_NC/media/Estimation_List.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,50 +385,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CR1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Complex</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>This is demo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Estimation_NC/media/Estimation_List.xlsx
+++ b/Estimation_NC/media/Estimation_List.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,6 +385,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CR1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>This is test</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Complex</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Complex</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>41.08</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Estimation_NC/media/Estimation_List.xlsx
+++ b/Estimation_NC/media/Estimation_List.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,94 +385,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CR1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>This is test</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Complex</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Complex</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>37.65</v>
-      </c>
-      <c r="E5" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Estimation_NC/media/Estimation_List.xlsx
+++ b/Estimation_NC/media/Estimation_List.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,6 +385,50 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Erinna D. Brodsky</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tres</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
